--- a/code/results/SP/D/signal_reconstruction/execution_times.xlsx
+++ b/code/results/SP/D/signal_reconstruction/execution_times.xlsx
@@ -406,16 +406,16 @@
         <v>9285520000000</v>
       </c>
       <c r="C2" t="n">
-        <v>33356430.53191489</v>
+        <v>117925154.3007335</v>
       </c>
       <c r="D2" t="n">
-        <v>1.683790162241421</v>
+        <v>1.851482273000073</v>
       </c>
       <c r="E2" t="n">
-        <v>16532.50608946388</v>
+        <v>4252.851499315952</v>
       </c>
       <c r="F2" t="n">
-        <v>16532.50608946388</v>
+        <v>4252.851499315952</v>
       </c>
     </row>
     <row r="3">
@@ -426,16 +426,16 @@
         <v>9285520000000</v>
       </c>
       <c r="C3" t="n">
-        <v>117854100.8602941</v>
+        <v>117721015.8651961</v>
       </c>
       <c r="D3" t="n">
-        <v>1.642299509948103</v>
+        <v>1.667705175046325</v>
       </c>
       <c r="E3" t="n">
-        <v>4797.43575519488</v>
+        <v>4729.693001993027</v>
       </c>
       <c r="F3" t="n">
-        <v>21329.94184465876</v>
+        <v>8982.544501308977</v>
       </c>
     </row>
     <row r="4">
@@ -446,16 +446,16 @@
         <v>8919010000000</v>
       </c>
       <c r="C4" t="n">
-        <v>117663299.5447761</v>
+        <v>117827365.5759804</v>
       </c>
       <c r="D4" t="n">
-        <v>1.433860950315139</v>
+        <v>1.536300444763633</v>
       </c>
       <c r="E4" t="n">
-        <v>5286.50431074912</v>
+        <v>4927.133469392097</v>
       </c>
       <c r="F4" t="n">
-        <v>26616.44615540788</v>
+        <v>13909.67797070108</v>
       </c>
     </row>
     <row r="5">
@@ -466,16 +466,16 @@
         <v>8919010000000</v>
       </c>
       <c r="C5" t="n">
-        <v>120010083.6955446</v>
+        <v>117928195.4117647</v>
       </c>
       <c r="D5" t="n">
-        <v>1.625993272616916</v>
+        <v>1.634870755116458</v>
       </c>
       <c r="E5" t="n">
-        <v>4570.673170287505</v>
+        <v>4626.105926950761</v>
       </c>
       <c r="F5" t="n">
-        <v>31187.11932569538</v>
+        <v>18535.78389765184</v>
       </c>
     </row>
     <row r="6">
@@ -486,16 +486,16 @@
         <v>10325700000000</v>
       </c>
       <c r="C6" t="n">
-        <v>117847103.398533</v>
+        <v>117863851.2982885</v>
       </c>
       <c r="D6" t="n">
-        <v>1.64680628416573</v>
+        <v>1.64466776702005</v>
       </c>
       <c r="E6" t="n">
-        <v>5320.568943429327</v>
+        <v>5326.730124843657</v>
       </c>
       <c r="F6" t="n">
-        <v>36507.68826912472</v>
+        <v>23862.51402249549</v>
       </c>
     </row>
     <row r="7">
@@ -506,16 +506,16 @@
         <v>10325700000000</v>
       </c>
       <c r="C7" t="n">
-        <v>117850397.4215686</v>
+        <v>117891523.5085575</v>
       </c>
       <c r="D7" t="n">
-        <v>1.436094641724817</v>
+        <v>1.479633613637611</v>
       </c>
       <c r="E7" t="n">
-        <v>6101.061317719386</v>
+        <v>5919.468775579904</v>
       </c>
       <c r="F7" t="n">
-        <v>42608.7495868441</v>
+        <v>29781.9827980754</v>
       </c>
     </row>
     <row r="8">
@@ -526,16 +526,16 @@
         <v>8219280000000</v>
       </c>
       <c r="C8" t="n">
-        <v>117833084.129902</v>
+        <v>117748917.8406863</v>
       </c>
       <c r="D8" t="n">
-        <v>1.637661917012135</v>
+        <v>1.67823990870827</v>
       </c>
       <c r="E8" t="n">
-        <v>4259.339724145141</v>
+        <v>4159.324522140129</v>
       </c>
       <c r="F8" t="n">
-        <v>46868.08931098924</v>
+        <v>33941.30732021553</v>
       </c>
     </row>
     <row r="9">
@@ -546,16 +546,16 @@
         <v>7819060000000</v>
       </c>
       <c r="C9" t="n">
-        <v>118496534.3227384</v>
+        <v>117811315.6577017</v>
       </c>
       <c r="D9" t="n">
-        <v>1.656532182320164</v>
+        <v>1.66202673862713</v>
       </c>
       <c r="E9" t="n">
-        <v>3983.355060921954</v>
+        <v>3993.27788768763</v>
       </c>
       <c r="F9" t="n">
-        <v>50851.4443719112</v>
+        <v>37934.58520790316</v>
       </c>
     </row>
     <row r="10">
@@ -566,16 +566,16 @@
         <v>7953930000000</v>
       </c>
       <c r="C10" t="n">
-        <v>117826665.0909091</v>
+        <v>117820306.8578431</v>
       </c>
       <c r="D10" t="n">
-        <v>1.406283037345829</v>
+        <v>1.434280108594511</v>
       </c>
       <c r="E10" t="n">
-        <v>4800.267509971072</v>
+        <v>4706.82053637948</v>
       </c>
       <c r="F10" t="n">
-        <v>55651.71188188226</v>
+        <v>42641.40574428264</v>
       </c>
     </row>
   </sheetData>
